--- a/Jogos_do_Dia/2023-09-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.16</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
         <v>1.09</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -778,10 +778,10 @@
         <v>3.6</v>
       </c>
       <c r="N3" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -841,7 +841,7 @@
         <v>3.6</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.84</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -893,10 +893,10 @@
         <v>2.9</v>
       </c>
       <c r="N4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.48</v>
@@ -960,8 +960,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>10652</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>45187</v>
@@ -985,52 +987,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="V5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1048,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF5" t="n">
         <v>1.75</v>
@@ -1066,10 +1068,10 @@
         <v>2.17</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">
@@ -1100,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1121,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1190,7 +1192,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1202,110 +1204,110 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Norrköping</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Mjällby</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.29</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>4.95</v>
+        <v>3.2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2.21</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1.44</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.33</v>
-      </c>
       <c r="Z7" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1317,104 +1319,104 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Norrköping</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mjällby</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>2.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>3.28</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF8" t="n">
         <v>1.36</v>
       </c>
-      <c r="M8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="AG8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI8" t="n">
         <v>2.75</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>2.55</v>
       </c>
     </row>
     <row r="9">
@@ -1445,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3.19</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.02</v>
@@ -1535,7 +1537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1547,104 +1549,104 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>3.22</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>2.74</v>
+        <v>2.36</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>4.95</v>
       </c>
       <c r="N10" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
-        <v>1.97</v>
+        <v>2.11</v>
       </c>
       <c r="P10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="Y10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH10" t="n">
         <v>2.25</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AI10" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="11">
@@ -1675,13 +1677,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.25</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1696,10 +1698,10 @@
         <v>3.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1765,7 +1767,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1777,110 +1779,110 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.54</v>
+        <v>2.33</v>
       </c>
       <c r="H12" t="n">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10.06</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="N12" t="n">
         <v>1.97</v>
       </c>
       <c r="O12" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
         <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="U12" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="V12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1.38</v>
       </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AA12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.51</v>
+        <v>2.37</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1892,104 +1894,104 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.62</v>
+        <v>2.65</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.75</v>
+        <v>1.64</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.05</v>
+        <v>1.51</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="14">
@@ -2011,100 +2013,100 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>10.06</v>
+        <v>10.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="N14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.85</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.98</v>
-      </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U14" t="n">
         <v>1.33</v>
       </c>
       <c r="V14" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="AH14" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="15">
@@ -2138,10 +2140,10 @@
         <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.75</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2156,10 +2158,10 @@
         <v>4.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="P15" t="n">
         <v>1.29</v>
@@ -2207,7 +2209,7 @@
         <v>4.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF15" t="n">
         <v>1.28</v>
@@ -2304,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="Z16" t="n">
         <v>1.56</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.62</v>
+        <v>3.22</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2537,34 +2539,34 @@
         <v>1.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="19">
@@ -2649,13 +2651,13 @@
         <v>1.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="Z19" t="n">
         <v>1.21</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>1.91</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AA20" t="n">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2888,28 +2890,28 @@
         <v>2.39</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="22">
@@ -2940,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
@@ -2961,10 +2963,10 @@
         <v>2.95</v>
       </c>
       <c r="N22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3055,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3076,10 +3078,10 @@
         <v>3.45</v>
       </c>
       <c r="N23" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
         <v>1.39</v>
@@ -3170,13 +3172,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.99</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
@@ -3191,7 +3193,7 @@
         <v>2.85</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.61</v>
@@ -3285,13 +3287,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H25" t="n">
-        <v>3.19</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>3.14</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>1.05</v>
@@ -3306,10 +3308,10 @@
         <v>3.6</v>
       </c>
       <c r="N25" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="O25" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -3400,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.51</v>
+        <v>2.39</v>
       </c>
       <c r="J26" t="n">
         <v>1.06</v>
@@ -3421,10 +3423,10 @@
         <v>3.2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
         <v>1.44</v>
@@ -3515,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="H27" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
@@ -3536,10 +3538,10 @@
         <v>3.2</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3630,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H28" t="n">
-        <v>2.91</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
         <v>1.11</v>
@@ -3645,16 +3647,16 @@
         <v>6.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="N28" t="n">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="O28" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
         <v>1.57</v>
@@ -3745,13 +3747,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I29" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3766,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="O29" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3860,13 +3862,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.83</v>
+        <v>3.65</v>
       </c>
       <c r="I30" t="n">
-        <v>3.08</v>
+        <v>2.52</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
@@ -3881,10 +3883,10 @@
         <v>5.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="O30" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="P30" t="n">
         <v>1.22</v>
@@ -4047,7 +4049,7 @@
         <v>4.33</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF31" t="n">
         <v>1.48</v>
@@ -4090,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I32" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -4111,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -4153,13 +4155,13 @@
         <v>2.79</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -4174,7 +4176,7 @@
         <v>1.77</v>
       </c>
       <c r="AI32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="33">
@@ -4205,13 +4207,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4226,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="O33" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -4320,13 +4322,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.29</v>
+        <v>4.15</v>
       </c>
       <c r="J34" t="n">
         <v>1.09</v>
@@ -4344,7 +4346,7 @@
         <v>2.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
         <v>1.57</v>
@@ -4392,7 +4394,7 @@
         <v>3.3</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF34" t="n">
         <v>1.22</v>

--- a/Jogos_do_Dia/2023-09-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.09</v>
@@ -657,13 +657,13 @@
         <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -690,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y2" t="n">
         <v>1.41</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -781,7 +781,7 @@
         <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -805,10 +805,10 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -893,10 +893,10 @@
         <v>2.9</v>
       </c>
       <c r="N4" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
         <v>1.48</v>
@@ -920,10 +920,10 @@
         <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Y4" t="n">
         <v>1.37</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>1.13</v>
@@ -1002,16 +1002,16 @@
         <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
         <v>1.6</v>
@@ -1020,10 +1020,10 @@
         <v>2.37</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T5" t="n">
         <v>1.3</v>
@@ -1035,7 +1035,7 @@
         <v>1.43</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>1.87</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AE5" t="n">
         <v>1.39</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1123,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1150,10 +1150,10 @@
         <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y6" t="n">
         <v>1.19</v>
@@ -1192,7 +1192,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1204,110 +1204,110 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Norrköping</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mjällby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB7" t="n">
         <v>2.05</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AC7" t="n">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1319,104 +1319,104 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Norrköping</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Mjällby</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.79</v>
+        <v>2.58</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="9">
@@ -1438,40 +1438,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Öster</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="O9" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1480,64 +1480,64 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.2</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AF9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AG9" t="n">
         <v>1.65</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AH9" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,104 +1549,104 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Öster</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.62</v>
       </c>
-      <c r="O10" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="U10" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5</v>
+        <v>1.73</v>
       </c>
       <c r="X10" t="n">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.52</v>
+        <v>3.27</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1698,10 +1698,10 @@
         <v>3.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="O11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1725,10 +1725,10 @@
         <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
         <v>1.34</v>
@@ -1767,7 +1767,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,110 +1779,110 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>10.06</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
         <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.72</v>
+        <v>1.15</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="AE12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF12" t="n">
         <v>1.43</v>
       </c>
-      <c r="AF12" t="n">
-        <v>1.83</v>
-      </c>
       <c r="AG12" t="n">
-        <v>2.37</v>
+        <v>1.51</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,104 +1894,104 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.25</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.25</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>10.65</v>
       </c>
       <c r="L13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.33</v>
       </c>
-      <c r="M13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.25</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.65</v>
+        <v>1.62</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.64</v>
+        <v>2.75</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.51</v>
+        <v>2.05</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.45</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="14">
@@ -2013,100 +2013,100 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.05</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U14" t="n">
         <v>1.33</v>
       </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2158,10 +2158,10 @@
         <v>4.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O15" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="P15" t="n">
         <v>1.29</v>
@@ -2185,10 +2185,10 @@
         <v>2.6</v>
       </c>
       <c r="W15" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="Y15" t="n">
         <v>1.7</v>
@@ -2300,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         <v>3.22</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="17">
@@ -2358,22 +2358,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="I17" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2385,73 +2385,73 @@
         <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>2.25</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="18">
@@ -2473,100 +2473,100 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
-        <v>3.68</v>
+        <v>4.55</v>
       </c>
       <c r="I18" t="n">
-        <v>3.61</v>
+        <v>6.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.75</v>
       </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI18" t="n">
         <v>3.2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.93</v>
       </c>
     </row>
     <row r="19">
@@ -2588,100 +2588,100 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="H19" t="n">
-        <v>4.55</v>
+        <v>5.15</v>
       </c>
       <c r="I19" t="n">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O19" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="U19" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="V19" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="W19" t="n">
         <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="20">
@@ -2703,100 +2703,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>5.15</v>
+        <v>4.05</v>
       </c>
       <c r="I20" t="n">
-        <v>7.7</v>
+        <v>4.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.17</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="U20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
         <v>3.5</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="21">
@@ -2818,28 +2818,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>3.31</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -2854,64 +2854,64 @@
         <v>2.05</v>
       </c>
       <c r="P21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q21" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="U21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.75</v>
       </c>
-      <c r="S21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.3</v>
-      </c>
       <c r="W21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.39</v>
+        <v>2.71</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.35</v>
+        <v>1.83</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.05</v>
+        <v>2.57</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.69</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="22">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
@@ -2963,10 +2963,10 @@
         <v>2.95</v>
       </c>
       <c r="N22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y22" t="n">
         <v>1.42</v>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
         <v>1.39</v>
@@ -3105,10 +3105,10 @@
         <v>2.65</v>
       </c>
       <c r="W23" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Y23" t="n">
         <v>1.58</v>
@@ -3175,10 +3175,10 @@
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
@@ -3193,10 +3193,10 @@
         <v>2.85</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3220,10 +3220,10 @@
         <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>1.87</v>
@@ -3235,13 +3235,13 @@
         <v>2.67</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE24" t="n">
         <v>1.57</v>
@@ -3256,7 +3256,7 @@
         <v>3.95</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="25">
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
         <v>1.05</v>
@@ -3308,10 +3308,10 @@
         <v>3.6</v>
       </c>
       <c r="N25" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -3335,10 +3335,10 @@
         <v>1.77</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
         <v>1.51</v>
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
         <v>1.06</v>
@@ -3423,10 +3423,10 @@
         <v>3.2</v>
       </c>
       <c r="N26" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O26" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="P26" t="n">
         <v>1.44</v>
@@ -3450,7 +3450,7 @@
         <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
         <v>1</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
@@ -3538,10 +3538,10 @@
         <v>3.2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
         <v>1.11</v>
@@ -3647,16 +3647,16 @@
         <v>6.5</v>
       </c>
       <c r="L28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.41</v>
       </c>
       <c r="P28" t="n">
         <v>1.57</v>
@@ -3750,10 +3750,10 @@
         <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
@@ -3883,10 +3883,10 @@
         <v>5.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="O30" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="P30" t="n">
         <v>1.22</v>
@@ -4092,37 +4092,37 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R32" t="n">
         <v>2.05</v>
@@ -4131,13 +4131,13 @@
         <v>1.7</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W32" t="n">
         <v>1.45</v>
@@ -4155,22 +4155,22 @@
         <v>2.79</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF32" t="n">
         <v>1.25</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AH32" t="n">
         <v>1.77</v>
@@ -4182,7 +4182,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4194,110 +4194,110 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.89</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N33" t="n">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="O33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4309,104 +4309,104 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.5</v>
       </c>
-      <c r="M34" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q34" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="X34" t="n">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.41</v>
+        <v>2.2</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
